--- a/Users/thofebin/eclipse-workspace/Capstone/src/test/resources/TestData/TestData.xlsx
+++ b/Users/thofebin/eclipse-workspace/Capstone/src/test/resources/TestData/TestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{60C19A09-6D3E-4E50-8CAE-590B091C0AA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{C654B3D2-A918-4DF2-B4B0-E8B071C9C566}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3690" yWindow="1400" windowWidth="2370" windowHeight="560" activeTab="2" xr2:uid="{CF3FD7E2-902C-4E2E-982D-2C7AABB38F6C}"/>
+    <workbookView xWindow="3690" yWindow="1400" windowWidth="2410" windowHeight="1120" activeTab="1" xr2:uid="{CF3FD7E2-902C-4E2E-982D-2C7AABB38F6C}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -13,19 +13,10 @@
     <sheet name="SearchProduct" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
+  <oleSize ref="A1:J17"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -440,7 +431,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4BE537C-0F2B-41E1-87DA-38871FD9DDD4}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -488,7 +479,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A564C0D-31E3-4AFE-A9B4-65ACCB8737FE}">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
